--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H2">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I2">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J2">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7301833333333333</v>
+        <v>1.620945</v>
       </c>
       <c r="N2">
-        <v>2.19055</v>
+        <v>4.862835</v>
       </c>
       <c r="O2">
-        <v>0.1670361508916995</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P2">
-        <v>0.1670361508916995</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q2">
-        <v>1.344234415022222</v>
+        <v>4.97717105715</v>
       </c>
       <c r="R2">
-        <v>12.0981097352</v>
+        <v>44.79453951435</v>
       </c>
       <c r="S2">
-        <v>0.02782115984862975</v>
+        <v>0.1009873355931207</v>
       </c>
       <c r="T2">
-        <v>0.02782115984862975</v>
+        <v>0.1009873355931207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H3">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I3">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J3">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.620945</v>
+        <v>1.421245</v>
       </c>
       <c r="N3">
-        <v>4.862835</v>
+        <v>4.263735</v>
       </c>
       <c r="O3">
-        <v>0.3708060719095377</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P3">
-        <v>0.3708060719095377</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q3">
-        <v>2.98408626216</v>
+        <v>4.363984884816666</v>
       </c>
       <c r="R3">
-        <v>26.85677635944</v>
+        <v>39.27586396335</v>
       </c>
       <c r="S3">
-        <v>0.06176061256420146</v>
+        <v>0.08854572226389226</v>
       </c>
       <c r="T3">
-        <v>0.06176061256420144</v>
+        <v>0.08854572226389225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H4">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I4">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J4">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.36727</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N4">
-        <v>4.10181</v>
+        <v>1.68468</v>
       </c>
       <c r="O4">
-        <v>0.3127755833416639</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P4">
-        <v>0.3127755833416639</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q4">
-        <v>2.517082087093333</v>
+        <v>1.724290570533333</v>
       </c>
       <c r="R4">
-        <v>22.65373878384</v>
+        <v>15.5186151348</v>
       </c>
       <c r="S4">
-        <v>0.05209518690680788</v>
+        <v>0.03498604096725852</v>
       </c>
       <c r="T4">
-        <v>0.05209518690680787</v>
+        <v>0.03498604096725853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.840954666666667</v>
+        <v>3.899801666666667</v>
       </c>
       <c r="H5">
-        <v>5.522864</v>
+        <v>11.699405</v>
       </c>
       <c r="I5">
-        <v>0.1665577163991766</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J5">
-        <v>0.1665577163991765</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6530106666666667</v>
+        <v>1.620945</v>
       </c>
       <c r="N5">
-        <v>1.959032</v>
+        <v>4.862835</v>
       </c>
       <c r="O5">
-        <v>0.1493821938570989</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P5">
-        <v>0.1493821938570989</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q5">
-        <v>1.202163034183111</v>
+        <v>6.321364012575</v>
       </c>
       <c r="R5">
-        <v>10.819467307648</v>
+        <v>56.892276113175</v>
       </c>
       <c r="S5">
-        <v>0.02488075707953749</v>
+        <v>0.12826115510479</v>
       </c>
       <c r="T5">
-        <v>0.02488075707953748</v>
+        <v>0.12826115510479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>11.699405</v>
       </c>
       <c r="I6">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J6">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7301833333333333</v>
+        <v>1.421245</v>
       </c>
       <c r="N6">
-        <v>2.19055</v>
+        <v>4.263735</v>
       </c>
       <c r="O6">
-        <v>0.1670361508916995</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P6">
-        <v>0.1670361508916995</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q6">
-        <v>2.847570180305556</v>
+        <v>5.542573619741666</v>
       </c>
       <c r="R6">
-        <v>25.62813162275</v>
+        <v>49.88316257767499</v>
       </c>
       <c r="S6">
-        <v>0.0589351859178242</v>
+        <v>0.1124594143458953</v>
       </c>
       <c r="T6">
-        <v>0.0589351859178242</v>
+        <v>0.1124594143458953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>11.699405</v>
       </c>
       <c r="I7">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J7">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.620945</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N7">
-        <v>4.862835</v>
+        <v>1.68468</v>
       </c>
       <c r="O7">
-        <v>0.3708060719095377</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P7">
-        <v>0.3708060719095377</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q7">
-        <v>6.321364012575001</v>
+        <v>2.189972623933333</v>
       </c>
       <c r="R7">
-        <v>56.89227611317501</v>
+        <v>19.7097536154</v>
       </c>
       <c r="S7">
-        <v>0.1308311085401852</v>
+        <v>0.04443477987263346</v>
       </c>
       <c r="T7">
-        <v>0.1308311085401852</v>
+        <v>0.04443477987263347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.899801666666667</v>
+        <v>3.959514</v>
       </c>
       <c r="H8">
-        <v>11.699405</v>
+        <v>11.878542</v>
       </c>
       <c r="I8">
-        <v>0.3528289271705964</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J8">
-        <v>0.3528289271705963</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.36727</v>
+        <v>1.620945</v>
       </c>
       <c r="N8">
-        <v>4.10181</v>
+        <v>4.862835</v>
       </c>
       <c r="O8">
-        <v>0.3127755833416639</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P8">
-        <v>0.3127755833416639</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q8">
-        <v>5.332081824783333</v>
+        <v>6.41815442073</v>
       </c>
       <c r="R8">
-        <v>47.98873642305</v>
+        <v>57.76338978657</v>
       </c>
       <c r="S8">
-        <v>0.1103562735155968</v>
+        <v>0.1302250428872889</v>
       </c>
       <c r="T8">
-        <v>0.1103562735155967</v>
+        <v>0.1302250428872889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.899801666666667</v>
+        <v>3.959514</v>
       </c>
       <c r="H9">
-        <v>11.699405</v>
+        <v>11.878542</v>
       </c>
       <c r="I9">
-        <v>0.3528289271705964</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J9">
-        <v>0.3528289271705963</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6530106666666667</v>
+        <v>1.421245</v>
       </c>
       <c r="N9">
-        <v>1.959032</v>
+        <v>4.263735</v>
       </c>
       <c r="O9">
-        <v>0.1493821938570989</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P9">
-        <v>0.1493821938570989</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q9">
-        <v>2.546612086217778</v>
+        <v>5.627439474929999</v>
       </c>
       <c r="R9">
-        <v>22.91950877596</v>
+        <v>50.64695527436999</v>
       </c>
       <c r="S9">
-        <v>0.05270635919699025</v>
+        <v>0.1141813516672959</v>
       </c>
       <c r="T9">
-        <v>0.05270635919699024</v>
+        <v>0.1141813516672959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H10">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I10">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J10">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,33 +1051,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7301833333333333</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N10">
-        <v>2.19055</v>
+        <v>1.68468</v>
       </c>
       <c r="O10">
-        <v>0.1670361508916995</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P10">
-        <v>0.1670361508916995</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q10">
-        <v>1.722872442888889</v>
+        <v>2.22350468184</v>
       </c>
       <c r="R10">
-        <v>15.505851986</v>
+        <v>20.01154213656</v>
       </c>
       <c r="S10">
-        <v>0.0356577015859385</v>
+        <v>0.04511514893089274</v>
       </c>
       <c r="T10">
-        <v>0.0356577015859385</v>
+        <v>0.04511514893089275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.359506666666666</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H11">
-        <v>7.078519999999999</v>
+        <v>8.238623</v>
       </c>
       <c r="I11">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J11">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>4.862835</v>
       </c>
       <c r="O11">
-        <v>0.3708060719095377</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P11">
-        <v>0.3708060719095377</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q11">
-        <v>3.8246305338</v>
+        <v>4.451451586245</v>
       </c>
       <c r="R11">
-        <v>34.4216748042</v>
+        <v>40.063064276205</v>
       </c>
       <c r="S11">
-        <v>0.07915706981883877</v>
+        <v>0.09032043103498769</v>
       </c>
       <c r="T11">
-        <v>0.07915706981883877</v>
+        <v>0.09032043103498769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.359506666666666</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H12">
-        <v>7.078519999999999</v>
+        <v>8.238623</v>
       </c>
       <c r="I12">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J12">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.36727</v>
+        <v>1.421245</v>
       </c>
       <c r="N12">
-        <v>4.10181</v>
+        <v>4.263735</v>
       </c>
       <c r="O12">
-        <v>0.3127755833416639</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P12">
-        <v>0.3127755833416639</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q12">
-        <v>3.226082680133332</v>
+        <v>3.903033915211667</v>
       </c>
       <c r="R12">
-        <v>29.03474412119999</v>
+        <v>35.127305236905</v>
       </c>
       <c r="S12">
-        <v>0.06676912964425299</v>
+        <v>0.07919297755711703</v>
       </c>
       <c r="T12">
-        <v>0.06676912964425298</v>
+        <v>0.07919297755711703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.359506666666666</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H13">
-        <v>7.078519999999999</v>
+        <v>8.238623</v>
       </c>
       <c r="I13">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J13">
-        <v>0.2134729601681119</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6530106666666667</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N13">
-        <v>1.959032</v>
+        <v>1.68468</v>
       </c>
       <c r="O13">
-        <v>0.1493821938570989</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P13">
-        <v>0.1493821938570989</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q13">
-        <v>1.540783021404444</v>
+        <v>1.542160377293333</v>
       </c>
       <c r="R13">
-        <v>13.86704719264</v>
+        <v>13.87944339564</v>
       </c>
       <c r="S13">
-        <v>0.03188905911908164</v>
+        <v>0.03129059977482745</v>
       </c>
       <c r="T13">
-        <v>0.03188905911908163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.952690333333333</v>
-      </c>
-      <c r="H14">
-        <v>8.858071000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="J14">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.7301833333333333</v>
-      </c>
-      <c r="N14">
-        <v>2.19055</v>
-      </c>
-      <c r="O14">
-        <v>0.1670361508916995</v>
-      </c>
-      <c r="P14">
-        <v>0.1670361508916995</v>
-      </c>
-      <c r="Q14">
-        <v>2.156005269894445</v>
-      </c>
-      <c r="R14">
-        <v>19.40404742905</v>
-      </c>
-      <c r="S14">
-        <v>0.04462210353930707</v>
-      </c>
-      <c r="T14">
-        <v>0.04462210353930707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.952690333333333</v>
-      </c>
-      <c r="H15">
-        <v>8.858071000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="J15">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.620945</v>
-      </c>
-      <c r="N15">
-        <v>4.862835</v>
-      </c>
-      <c r="O15">
-        <v>0.3708060719095377</v>
-      </c>
-      <c r="P15">
-        <v>0.3708060719095377</v>
-      </c>
-      <c r="Q15">
-        <v>4.786148632365</v>
-      </c>
-      <c r="R15">
-        <v>43.07533769128501</v>
-      </c>
-      <c r="S15">
-        <v>0.09905728098631227</v>
-      </c>
-      <c r="T15">
-        <v>0.09905728098631227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.952690333333333</v>
-      </c>
-      <c r="H16">
-        <v>8.858071000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="J16">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.36727</v>
-      </c>
-      <c r="N16">
-        <v>4.10181</v>
-      </c>
-      <c r="O16">
-        <v>0.3127755833416639</v>
-      </c>
-      <c r="P16">
-        <v>0.3127755833416639</v>
-      </c>
-      <c r="Q16">
-        <v>4.037124912056666</v>
-      </c>
-      <c r="R16">
-        <v>36.33412420851</v>
-      </c>
-      <c r="S16">
-        <v>0.08355499327500633</v>
-      </c>
-      <c r="T16">
-        <v>0.08355499327500633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.952690333333333</v>
-      </c>
-      <c r="H17">
-        <v>8.858071000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="J17">
-        <v>0.2671403962621152</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6530106666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.959032</v>
-      </c>
-      <c r="O17">
-        <v>0.1493821938570989</v>
-      </c>
-      <c r="P17">
-        <v>0.1493821938570989</v>
-      </c>
-      <c r="Q17">
-        <v>1.928138283030222</v>
-      </c>
-      <c r="R17">
-        <v>17.353244547272</v>
-      </c>
-      <c r="S17">
-        <v>0.0399060184614895</v>
-      </c>
-      <c r="T17">
-        <v>0.03990601846148949</v>
+        <v>0.03129059977482745</v>
       </c>
     </row>
   </sheetData>
